--- a/STGGame/Assets/MainEditor/Design/Configs/G_Mob.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Mob.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="4460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10080" yWindow="4455" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,14 +87,26 @@
   </si>
   <si>
     <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -464,21 +476,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -494,8 +506,11 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,8 +526,11 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -523,17 +541,20 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1"/>
-    <row r="5" spans="1:5" hidden="1"/>
-    <row r="6" spans="1:5">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1"/>
+    <row r="5" spans="1:6" hidden="1"/>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>10400001</v>
+        <v>10400100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -547,16 +568,19 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>40400101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>10400002</v>
+        <v>10400200</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -564,22 +588,28 @@
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>40400201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>10400003</v>
+        <v>10400300</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
         <v>2</v>
+      </c>
+      <c r="F8">
+        <v>40400301</v>
       </c>
     </row>
   </sheetData>
@@ -594,14 +624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
